--- a/data/CCF LUGE_DuConv/qianwen.xlsx
+++ b/data/CCF LUGE_DuConv/qianwen.xlsx
@@ -5,23 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\研究生\大模型\对话\改论文\human_result\qianwen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\研究生\大模型\对话\改论文\data\Lic 2021_DuConv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D11ACA1-BC3D-4A73-93FE-5D119C3D0566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304EC649-8638-4A29-840B-05570B0ECB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="大模型生成结果" sheetId="1" r:id="rId1"/>
     <sheet name="人工评估结果" sheetId="2" r:id="rId2"/>
+    <sheet name="自动评估结果" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7565" uniqueCount="7390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7586" uniqueCount="7411">
   <si>
     <t>History</t>
   </si>
@@ -22191,13 +22192,79 @@
   </si>
   <si>
     <t>推荐成功率（Rec.）</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>bleu1(略)</t>
+  </si>
+  <si>
+    <t>bleu2(略)</t>
+  </si>
+  <si>
+    <t>distinct1</t>
+  </si>
+  <si>
+    <t>distinct2</t>
+  </si>
+  <si>
+    <t>bleu1</t>
+  </si>
+  <si>
+    <t>bleu2</t>
+  </si>
+  <si>
+    <t>bleu3</t>
+  </si>
+  <si>
+    <t>bleu4</t>
+  </si>
+  <si>
+    <t>meteor</t>
+  </si>
+  <si>
+    <t>rouge1</t>
+  </si>
+  <si>
+    <t>ea(EmbeddingAverageCosineSimilarity)</t>
+  </si>
+  <si>
+    <t>ve(VectorExtremaCosineSimilarity)</t>
+  </si>
+  <si>
+    <t>gm(GreedyMatchingScore)</t>
+  </si>
+  <si>
+    <t>bert-score: P</t>
+  </si>
+  <si>
+    <t>bert-score: R</t>
+  </si>
+  <si>
+    <t>bert-score: F1</t>
+  </si>
+  <si>
+    <t>cider</t>
+  </si>
+  <si>
+    <t>st</t>
+  </si>
+  <si>
+    <t>bleurt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -22212,6 +22279,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -22221,9 +22303,18 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -22233,8 +22324,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -53066,7 +53172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB764DE-A58B-492E-A021-14C13F5F6680}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F32"/>
     </sheetView>
   </sheetViews>
@@ -53702,4 +53808,150 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18681D91-BD29-4E9E-A3BB-A25F1C76DD3E}">
+  <dimension ref="A1:U2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:U2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7390</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7391</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7392</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7393</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7394</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7395</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7396</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7397</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7398</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7399</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7400</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7401</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7402</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7403</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7404</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7405</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>7406</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7407</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7408</v>
+      </c>
+      <c r="T1" t="s">
+        <v>7409</v>
+      </c>
+      <c r="U1" t="s">
+        <v>7410</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="B2" s="2">
+        <v>11.61</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="S2" s="5">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="U2" s="2">
+        <v>-0.18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>